--- a/acre_marine_data/Marine data/SHIP JAVA,(1 AUG-14 NOV 1851).xlsx
+++ b/acre_marine_data/Marine data/SHIP JAVA,(1 AUG-14 NOV 1851).xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24827"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lamprini\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/dcdc899b28ada8e9/Documents/GitHub/Tools1_Final/acre_marine_data/Marine data/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="11_B1810CFD3F60E89904508536D301B56C84C9DC8B" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView minimized="1" xWindow="6540" yWindow="6270" windowWidth="28490" windowHeight="14720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -95,7 +96,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -168,7 +169,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Κανονικό" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -184,9 +185,9 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="el-GR"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -224,7 +225,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -250,7 +250,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="el-GR"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -600,6 +600,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-A5C7-4246-B7F8-2F9658D730FD}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -941,6 +946,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-A5C7-4246-B7F8-2F9658D730FD}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -1282,6 +1292,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-A5C7-4246-B7F8-2F9658D730FD}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
@@ -1623,6 +1638,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-A5C7-4246-B7F8-2F9658D730FD}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -1676,7 +1696,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="el-GR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="309126608"/>
@@ -1736,7 +1756,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="el-GR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="251746592"/>
@@ -1753,7 +1773,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1779,7 +1798,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="el-GR"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -1809,7 +1828,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="el-GR"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1821,9 +1840,9 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="el-GR"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1861,7 +1880,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1887,7 +1905,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="el-GR"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -2245,6 +2263,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-A210-47F3-A022-A6DA9F484DA0}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -2594,6 +2617,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-A210-47F3-A022-A6DA9F484DA0}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -2943,6 +2971,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-A210-47F3-A022-A6DA9F484DA0}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
@@ -3250,6 +3283,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-A210-47F3-A022-A6DA9F484DA0}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="4"/>
@@ -3557,6 +3595,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-A210-47F3-A022-A6DA9F484DA0}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -3610,7 +3653,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="el-GR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="302828368"/>
@@ -3669,7 +3712,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="el-GR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="302825568"/>
@@ -3686,7 +3729,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3712,7 +3754,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="el-GR"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -3742,7 +3784,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="el-GR"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -4882,7 +4924,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Γράφημα 1"/>
+        <xdr:cNvPr id="2" name="Γράφημα 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -4912,7 +4960,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Γράφημα 2"/>
+        <xdr:cNvPr id="3" name="Γράφημα 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -5192,29 +5246,29 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:V111"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
+      <selection pane="bottomLeft" activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="7.7109375" customWidth="1"/>
-    <col min="3" max="3" width="4.85546875" customWidth="1"/>
-    <col min="4" max="4" width="10.85546875" style="3" customWidth="1"/>
-    <col min="5" max="5" width="4.7109375" style="7" customWidth="1"/>
-    <col min="6" max="6" width="11.7109375" style="3" customWidth="1"/>
-    <col min="7" max="7" width="4.85546875" style="7" customWidth="1"/>
-    <col min="8" max="8" width="13.28515625" style="3" customWidth="1"/>
-    <col min="9" max="9" width="10.7109375" style="3" customWidth="1"/>
-    <col min="10" max="16" width="9.140625" style="3"/>
+    <col min="1" max="1" width="6.1796875" customWidth="1"/>
+    <col min="2" max="2" width="7.7265625" customWidth="1"/>
+    <col min="3" max="3" width="4.81640625" customWidth="1"/>
+    <col min="4" max="4" width="10.81640625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="4.7265625" style="7" customWidth="1"/>
+    <col min="6" max="6" width="11.7265625" style="3" customWidth="1"/>
+    <col min="7" max="7" width="4.81640625" style="7" customWidth="1"/>
+    <col min="8" max="8" width="13.26953125" style="3" customWidth="1"/>
+    <col min="9" max="9" width="10.7265625" style="3" customWidth="1"/>
+    <col min="10" max="16" width="9.1796875" style="3"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B2" s="1" t="s">
         <v>17</v>
       </c>
@@ -5232,7 +5286,7 @@
       <c r="O2" s="4"/>
       <c r="P2" s="4"/>
     </row>
-    <row r="4" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
@@ -5271,7 +5325,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="D5" s="5"/>
       <c r="F5" s="5"/>
       <c r="H5" s="6">
@@ -5305,7 +5359,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>1851</v>
       </c>
@@ -5328,7 +5382,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>1851</v>
       </c>
@@ -5351,7 +5405,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>1851</v>
       </c>
@@ -5409,7 +5463,7 @@
       <c r="U8" s="3"/>
       <c r="V8" s="3"/>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>1851</v>
       </c>
@@ -5467,7 +5521,7 @@
       <c r="U9" s="3"/>
       <c r="V9" s="3"/>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>1851</v>
       </c>
@@ -5525,7 +5579,7 @@
       <c r="U10" s="3"/>
       <c r="V10" s="3"/>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>1851</v>
       </c>
@@ -5583,7 +5637,7 @@
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>1851</v>
       </c>
@@ -5641,7 +5695,7 @@
       <c r="U12" s="3"/>
       <c r="V12" s="3"/>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>1851</v>
       </c>
@@ -5699,7 +5753,7 @@
       <c r="U13" s="3"/>
       <c r="V13" s="3"/>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>1851</v>
       </c>
@@ -5757,7 +5811,7 @@
       <c r="U14" s="3"/>
       <c r="V14" s="3"/>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>1851</v>
       </c>
@@ -5815,7 +5869,7 @@
       <c r="U15" s="3"/>
       <c r="V15" s="3"/>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>1851</v>
       </c>
@@ -5873,7 +5927,7 @@
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
     </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>1851</v>
       </c>
@@ -5931,7 +5985,7 @@
       <c r="U17" s="3"/>
       <c r="V17" s="3"/>
     </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>1851</v>
       </c>
@@ -5989,7 +6043,7 @@
       <c r="U18" s="3"/>
       <c r="V18" s="3"/>
     </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>1851</v>
       </c>
@@ -6047,7 +6101,7 @@
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
     </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>1851</v>
       </c>
@@ -6105,7 +6159,7 @@
       <c r="U20" s="3"/>
       <c r="V20" s="3"/>
     </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>1851</v>
       </c>
@@ -6163,7 +6217,7 @@
       <c r="U21" s="3"/>
       <c r="V21" s="3"/>
     </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>1851</v>
       </c>
@@ -6221,7 +6275,7 @@
       <c r="U22" s="3"/>
       <c r="V22" s="3"/>
     </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>1851</v>
       </c>
@@ -6279,7 +6333,7 @@
       <c r="U23" s="3"/>
       <c r="V23" s="3"/>
     </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>1851</v>
       </c>
@@ -6337,7 +6391,7 @@
       <c r="U24" s="3"/>
       <c r="V24" s="3"/>
     </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>1851</v>
       </c>
@@ -6395,7 +6449,7 @@
       <c r="U25" s="3"/>
       <c r="V25" s="3"/>
     </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>1851</v>
       </c>
@@ -6453,7 +6507,7 @@
       <c r="U26" s="3"/>
       <c r="V26" s="3"/>
     </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>1851</v>
       </c>
@@ -6511,7 +6565,7 @@
       <c r="U27" s="3"/>
       <c r="V27" s="3"/>
     </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>1851</v>
       </c>
@@ -6569,7 +6623,7 @@
       <c r="U28" s="3"/>
       <c r="V28" s="3"/>
     </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>1851</v>
       </c>
@@ -6627,7 +6681,7 @@
       <c r="U29" s="3"/>
       <c r="V29" s="3"/>
     </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>1851</v>
       </c>
@@ -6685,7 +6739,7 @@
       <c r="U30" s="3"/>
       <c r="V30" s="3"/>
     </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>1851</v>
       </c>
@@ -6743,7 +6797,7 @@
       <c r="U31" s="3"/>
       <c r="V31" s="3"/>
     </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>1851</v>
       </c>
@@ -6801,7 +6855,7 @@
       <c r="U32" s="3"/>
       <c r="V32" s="3"/>
     </row>
-    <row r="33" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>1851</v>
       </c>
@@ -6859,7 +6913,7 @@
       <c r="U33" s="3"/>
       <c r="V33" s="3"/>
     </row>
-    <row r="34" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>1851</v>
       </c>
@@ -6917,7 +6971,7 @@
       <c r="U34" s="3"/>
       <c r="V34" s="3"/>
     </row>
-    <row r="35" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>1851</v>
       </c>
@@ -6975,7 +7029,7 @@
       <c r="U35" s="3"/>
       <c r="V35" s="3"/>
     </row>
-    <row r="36" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>1851</v>
       </c>
@@ -7033,7 +7087,7 @@
       <c r="U36" s="3"/>
       <c r="V36" s="3"/>
     </row>
-    <row r="37" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>1851</v>
       </c>
@@ -7091,7 +7145,7 @@
       <c r="U37" s="3"/>
       <c r="V37" s="3"/>
     </row>
-    <row r="38" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>1851</v>
       </c>
@@ -7149,7 +7203,7 @@
       <c r="U38" s="3"/>
       <c r="V38" s="3"/>
     </row>
-    <row r="39" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>1851</v>
       </c>
@@ -7207,7 +7261,7 @@
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
     </row>
-    <row r="40" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>1851</v>
       </c>
@@ -7265,7 +7319,7 @@
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
     </row>
-    <row r="41" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>1851</v>
       </c>
@@ -7323,7 +7377,7 @@
       <c r="U41" s="3"/>
       <c r="V41" s="3"/>
     </row>
-    <row r="42" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A42">
         <v>1851</v>
       </c>
@@ -7381,7 +7435,7 @@
       <c r="U42" s="3"/>
       <c r="V42" s="3"/>
     </row>
-    <row r="43" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A43">
         <v>1851</v>
       </c>
@@ -7439,7 +7493,7 @@
       <c r="U43" s="3"/>
       <c r="V43" s="3"/>
     </row>
-    <row r="44" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A44">
         <v>1851</v>
       </c>
@@ -7497,7 +7551,7 @@
       <c r="U44" s="3"/>
       <c r="V44" s="3"/>
     </row>
-    <row r="45" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A45">
         <v>1851</v>
       </c>
@@ -7555,7 +7609,7 @@
       <c r="U45" s="3"/>
       <c r="V45" s="3"/>
     </row>
-    <row r="46" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A46">
         <v>1851</v>
       </c>
@@ -7613,7 +7667,7 @@
       <c r="U46" s="3"/>
       <c r="V46" s="3"/>
     </row>
-    <row r="47" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A47">
         <v>1851</v>
       </c>
@@ -7671,7 +7725,7 @@
       <c r="U47" s="3"/>
       <c r="V47" s="3"/>
     </row>
-    <row r="48" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A48">
         <v>1851</v>
       </c>
@@ -7729,7 +7783,7 @@
       <c r="U48" s="3"/>
       <c r="V48" s="3"/>
     </row>
-    <row r="49" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A49">
         <v>1851</v>
       </c>
@@ -7787,7 +7841,7 @@
       <c r="U49" s="3"/>
       <c r="V49" s="3"/>
     </row>
-    <row r="50" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A50">
         <v>1851</v>
       </c>
@@ -7845,7 +7899,7 @@
       <c r="U50" s="3"/>
       <c r="V50" s="3"/>
     </row>
-    <row r="51" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A51">
         <v>1851</v>
       </c>
@@ -7903,7 +7957,7 @@
       <c r="U51" s="3"/>
       <c r="V51" s="3"/>
     </row>
-    <row r="52" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A52">
         <v>1851</v>
       </c>
@@ -7961,7 +8015,7 @@
       <c r="U52" s="3"/>
       <c r="V52" s="3"/>
     </row>
-    <row r="53" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A53">
         <v>1851</v>
       </c>
@@ -8019,7 +8073,7 @@
       <c r="U53" s="3"/>
       <c r="V53" s="3"/>
     </row>
-    <row r="54" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A54">
         <v>1851</v>
       </c>
@@ -8077,7 +8131,7 @@
       <c r="U54" s="3"/>
       <c r="V54" s="3"/>
     </row>
-    <row r="55" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A55">
         <v>1851</v>
       </c>
@@ -8135,7 +8189,7 @@
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
     </row>
-    <row r="56" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A56">
         <v>1851</v>
       </c>
@@ -8193,7 +8247,7 @@
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
     </row>
-    <row r="57" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A57">
         <v>1851</v>
       </c>
@@ -8251,7 +8305,7 @@
       <c r="U57" s="3"/>
       <c r="V57" s="3"/>
     </row>
-    <row r="58" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A58">
         <v>1851</v>
       </c>
@@ -8309,7 +8363,7 @@
       <c r="U58" s="3"/>
       <c r="V58" s="3"/>
     </row>
-    <row r="59" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A59">
         <v>1851</v>
       </c>
@@ -8367,7 +8421,7 @@
       <c r="U59" s="3"/>
       <c r="V59" s="3"/>
     </row>
-    <row r="60" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A60">
         <v>1851</v>
       </c>
@@ -8425,7 +8479,7 @@
       <c r="U60" s="3"/>
       <c r="V60" s="3"/>
     </row>
-    <row r="61" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A61">
         <v>1851</v>
       </c>
@@ -8483,7 +8537,7 @@
       <c r="U61" s="3"/>
       <c r="V61" s="3"/>
     </row>
-    <row r="62" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A62">
         <v>1851</v>
       </c>
@@ -8541,7 +8595,7 @@
       <c r="U62" s="3"/>
       <c r="V62" s="3"/>
     </row>
-    <row r="63" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A63">
         <v>1851</v>
       </c>
@@ -8599,7 +8653,7 @@
       <c r="U63" s="3"/>
       <c r="V63" s="3"/>
     </row>
-    <row r="64" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A64">
         <v>1851</v>
       </c>
@@ -8657,7 +8711,7 @@
       <c r="U64" s="3"/>
       <c r="V64" s="3"/>
     </row>
-    <row r="65" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A65">
         <v>1851</v>
       </c>
@@ -8715,7 +8769,7 @@
       <c r="U65" s="3"/>
       <c r="V65" s="3"/>
     </row>
-    <row r="66" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A66">
         <v>1851</v>
       </c>
@@ -8773,7 +8827,7 @@
       <c r="U66" s="3"/>
       <c r="V66" s="3"/>
     </row>
-    <row r="67" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A67">
         <v>1851</v>
       </c>
@@ -8831,7 +8885,7 @@
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
     </row>
-    <row r="68" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A68">
         <v>1851</v>
       </c>
@@ -8889,7 +8943,7 @@
       <c r="U68" s="3"/>
       <c r="V68" s="3"/>
     </row>
-    <row r="69" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A69">
         <v>1851</v>
       </c>
@@ -8947,7 +9001,7 @@
       <c r="U69" s="3"/>
       <c r="V69" s="3"/>
     </row>
-    <row r="70" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A70">
         <v>1851</v>
       </c>
@@ -9005,7 +9059,7 @@
       <c r="U70" s="3"/>
       <c r="V70" s="3"/>
     </row>
-    <row r="71" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A71">
         <v>1851</v>
       </c>
@@ -9063,7 +9117,7 @@
       <c r="U71" s="3"/>
       <c r="V71" s="3"/>
     </row>
-    <row r="72" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A72">
         <v>1851</v>
       </c>
@@ -9121,7 +9175,7 @@
       <c r="U72" s="3"/>
       <c r="V72" s="3"/>
     </row>
-    <row r="73" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A73">
         <v>1851</v>
       </c>
@@ -9179,7 +9233,7 @@
       <c r="U73" s="3"/>
       <c r="V73" s="3"/>
     </row>
-    <row r="74" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A74">
         <v>1851</v>
       </c>
@@ -9237,7 +9291,7 @@
       <c r="U74" s="3"/>
       <c r="V74" s="3"/>
     </row>
-    <row r="75" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A75">
         <v>1851</v>
       </c>
@@ -9295,7 +9349,7 @@
       <c r="U75" s="3"/>
       <c r="V75" s="3"/>
     </row>
-    <row r="76" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A76">
         <v>1851</v>
       </c>
@@ -9353,7 +9407,7 @@
       <c r="U76" s="3"/>
       <c r="V76" s="3"/>
     </row>
-    <row r="77" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A77">
         <v>1851</v>
       </c>
@@ -9411,7 +9465,7 @@
       <c r="U77" s="3"/>
       <c r="V77" s="3"/>
     </row>
-    <row r="78" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A78">
         <v>1851</v>
       </c>
@@ -9469,7 +9523,7 @@
       <c r="U78" s="3"/>
       <c r="V78" s="3"/>
     </row>
-    <row r="79" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A79">
         <v>1851</v>
       </c>
@@ -9527,7 +9581,7 @@
       <c r="U79" s="3"/>
       <c r="V79" s="3"/>
     </row>
-    <row r="80" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A80">
         <v>1851</v>
       </c>
@@ -9585,7 +9639,7 @@
       <c r="U80" s="3"/>
       <c r="V80" s="3"/>
     </row>
-    <row r="81" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A81">
         <v>1851</v>
       </c>
@@ -9643,7 +9697,7 @@
       <c r="U81" s="3"/>
       <c r="V81" s="3"/>
     </row>
-    <row r="82" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A82">
         <v>1851</v>
       </c>
@@ -9701,7 +9755,7 @@
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
     </row>
-    <row r="83" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A83">
         <v>1851</v>
       </c>
@@ -9759,7 +9813,7 @@
       <c r="U83" s="3"/>
       <c r="V83" s="3"/>
     </row>
-    <row r="84" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A84">
         <v>1851</v>
       </c>
@@ -9817,7 +9871,7 @@
       <c r="U84" s="3"/>
       <c r="V84" s="3"/>
     </row>
-    <row r="85" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A85">
         <v>1851</v>
       </c>
@@ -9875,7 +9929,7 @@
       <c r="U85" s="3"/>
       <c r="V85" s="3"/>
     </row>
-    <row r="86" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A86">
         <v>1851</v>
       </c>
@@ -9933,7 +9987,7 @@
       <c r="U86" s="3"/>
       <c r="V86" s="3"/>
     </row>
-    <row r="87" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A87">
         <v>1851</v>
       </c>
@@ -9991,7 +10045,7 @@
       <c r="U87" s="3"/>
       <c r="V87" s="3"/>
     </row>
-    <row r="88" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A88">
         <v>1851</v>
       </c>
@@ -10049,7 +10103,7 @@
       <c r="U88" s="3"/>
       <c r="V88" s="3"/>
     </row>
-    <row r="89" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A89">
         <v>1851</v>
       </c>
@@ -10107,7 +10161,7 @@
       <c r="U89" s="3"/>
       <c r="V89" s="3"/>
     </row>
-    <row r="90" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A90">
         <v>1851</v>
       </c>
@@ -10165,7 +10219,7 @@
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
     </row>
-    <row r="91" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A91">
         <v>1851</v>
       </c>
@@ -10223,7 +10277,7 @@
       <c r="U91" s="3"/>
       <c r="V91" s="3"/>
     </row>
-    <row r="92" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A92">
         <v>1851</v>
       </c>
@@ -10281,7 +10335,7 @@
       <c r="U92" s="3"/>
       <c r="V92" s="3"/>
     </row>
-    <row r="93" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A93">
         <v>1851</v>
       </c>
@@ -10339,7 +10393,7 @@
       <c r="U93" s="3"/>
       <c r="V93" s="3"/>
     </row>
-    <row r="94" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A94">
         <v>1851</v>
       </c>
@@ -10397,7 +10451,7 @@
       <c r="U94" s="3"/>
       <c r="V94" s="3"/>
     </row>
-    <row r="95" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A95">
         <v>1851</v>
       </c>
@@ -10455,7 +10509,7 @@
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
     </row>
-    <row r="96" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A96">
         <v>1851</v>
       </c>
@@ -10513,7 +10567,7 @@
       <c r="U96" s="3"/>
       <c r="V96" s="3"/>
     </row>
-    <row r="97" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A97">
         <v>1851</v>
       </c>
@@ -10571,7 +10625,7 @@
       <c r="U97" s="3"/>
       <c r="V97" s="3"/>
     </row>
-    <row r="98" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A98">
         <v>1851</v>
       </c>
@@ -10623,7 +10677,7 @@
       <c r="U98" s="3"/>
       <c r="V98" s="3"/>
     </row>
-    <row r="99" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A99">
         <v>1851</v>
       </c>
@@ -10675,7 +10729,7 @@
       <c r="U99" s="3"/>
       <c r="V99" s="3"/>
     </row>
-    <row r="100" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A100">
         <v>1851</v>
       </c>
@@ -10727,7 +10781,7 @@
       <c r="U100" s="3"/>
       <c r="V100" s="3"/>
     </row>
-    <row r="101" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A101">
         <v>1851</v>
       </c>
@@ -10779,7 +10833,7 @@
       <c r="U101" s="3"/>
       <c r="V101" s="3"/>
     </row>
-    <row r="102" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A102">
         <v>1851</v>
       </c>
@@ -10831,7 +10885,7 @@
       <c r="U102" s="3"/>
       <c r="V102" s="3"/>
     </row>
-    <row r="103" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A103">
         <v>1851</v>
       </c>
@@ -10883,7 +10937,7 @@
       <c r="U103" s="3"/>
       <c r="V103" s="3"/>
     </row>
-    <row r="104" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A104">
         <v>1851</v>
       </c>
@@ -10935,7 +10989,7 @@
       <c r="U104" s="3"/>
       <c r="V104" s="3"/>
     </row>
-    <row r="105" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A105">
         <v>1851</v>
       </c>
@@ -10987,7 +11041,7 @@
       <c r="U105" s="3"/>
       <c r="V105" s="3"/>
     </row>
-    <row r="106" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A106">
         <v>1851</v>
       </c>
@@ -11039,7 +11093,7 @@
       <c r="U106" s="3"/>
       <c r="V106" s="3"/>
     </row>
-    <row r="107" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A107">
         <v>1851</v>
       </c>
@@ -11091,7 +11145,7 @@
       <c r="U107" s="3"/>
       <c r="V107" s="3"/>
     </row>
-    <row r="108" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A108">
         <v>1851</v>
       </c>
@@ -11143,7 +11197,7 @@
       <c r="U108" s="3"/>
       <c r="V108" s="3"/>
     </row>
-    <row r="109" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A109">
         <v>1851</v>
       </c>
@@ -11195,7 +11249,7 @@
       <c r="U109" s="3"/>
       <c r="V109" s="3"/>
     </row>
-    <row r="110" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A110">
         <v>1851</v>
       </c>
@@ -11247,7 +11301,7 @@
       <c r="U110" s="3"/>
       <c r="V110" s="3"/>
     </row>
-    <row r="111" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A111">
         <v>1851</v>
       </c>
